--- a/dados/teste_tamanho.xlsx
+++ b/dados/teste_tamanho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alisson Franclin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2E1D60-9901-404D-A9D1-83506694C61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60051E90-8973-4975-8E6D-E4293E583954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,7 +580,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D1:D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +669,7 @@
         <v>95</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>

--- a/dados/teste_tamanho.xlsx
+++ b/dados/teste_tamanho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alisson Franclin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60051E90-8973-4975-8E6D-E4293E583954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56D6A4B-B76B-42E7-BFEA-F6497DBFD846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,7 +580,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +686,7 @@
         <v>94</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -720,7 +720,7 @@
         <v>91</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>

--- a/dados/teste_tamanho.xlsx
+++ b/dados/teste_tamanho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alisson Franclin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56D6A4B-B76B-42E7-BFEA-F6497DBFD846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA73931-5676-4961-BAF7-3F173B68FA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dados_completos!$A$1:$E$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dados_completos!$A$1:$E$28</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
   <si>
     <t>id_deputado</t>
   </si>
@@ -65,15 +65,6 @@
     <t>Sem revisão da oradora.)  Presidente, o Governo orienta a votação pela manutenção do texto.</t>
   </si>
   <si>
-    <t>Claro, havia me inscrito para falar como Líder ainda durante o debate, mas não foi possível.</t>
-  </si>
-  <si>
-    <t>O Senado Federal estipulou uma proporção entre formação geral básica e itinerário formativo.</t>
-  </si>
-  <si>
-    <t>Mais uma vez, sou o único Deputado do Brasil a participar e fazer a defesa dos consumidores.</t>
-  </si>
-  <si>
     <t>O Governo teve a grandeza de aqui mostrar que é possível, sim, fazer política civilizatória.</t>
   </si>
   <si>
@@ -131,15 +122,6 @@
     <t>Meu querido Presidente, honroume muito ser Líder do PL aqui na Câmara dos Deputados.</t>
   </si>
   <si>
-    <t>Esse projeto de lei complementar criado pelo Governo em nada difere de casos concretos em outros países, como Inglaterra e Estados Unidos.</t>
-  </si>
-  <si>
-    <t>O fato é que temos trabalhado para "despiorar" a intervenção do Governo Federal e do STF nas decisões desta Casa, da Câmara dos Deputados.</t>
-  </si>
-  <si>
-    <t>Na ocupação Lótus  Emanueli, nós levaremos esse recurso para urbanizar o local e levar dignidade para aquelas 500 famílias que vivem ali.</t>
-  </si>
-  <si>
     <t>O Projeto de Lei Complementar nº 72, de 2024, visa corrigir uma importante distorção que vem afetando os hospitais universitários federais.</t>
   </si>
   <si>
@@ -156,42 +138,6 @@
   </si>
   <si>
     <t>Porém, Clausewitz disse que os homens mais civilizados criaram a política, para que a política substituísse a morte das pessoas com sangue.</t>
-  </si>
-  <si>
-    <t>Eu fui às ruas para saber por que é tão ruim, e o povo disse que continua com a sensação de omissão do Governador nos atos de 8 de janeiro.</t>
-  </si>
-  <si>
-    <t>As disparidades existentes na região, especialmente em relação a políticas públicas de educação, saúde e assistência social são alarmantes.</t>
-  </si>
-  <si>
-    <t>Portanto, receba os meus cumprimentos pela atuação brilhante nas Comissões, no Plenário, nas reuniões, nos debates na Câmara dos Deputados.</t>
-  </si>
-  <si>
-    <t>Temos visto inclusive que o que aconteceu no Estado do Rio Grande do Sul, de outras formas, está acontecendo em todo o território nacional.</t>
-  </si>
-  <si>
-    <t>Eu faço um apelo aqui para os meus colegas darem celeridade aos projetos de lei que tramitam nesta Casa e que dão conta desse tema nefasto.</t>
-  </si>
-  <si>
-    <t>Então, eu quero aqui parabenizar o Ministro Renan Filho pelo seu trabalho, pelo seu desempenho e pelo cuidado com as obras no nosso Brasil.</t>
-  </si>
-  <si>
-    <t>É um avanço, mas até o mês de março a regulamentação desse decreto ainda não havia saído, nós não havíamos colocado em prática essa medida.</t>
-  </si>
-  <si>
-    <t>O nosso desafio agora, Presidente, é acompanhar a execução do plano para garantir que esses recursos cheguem efetivamente aos agricultores.</t>
-  </si>
-  <si>
-    <t>Vamos ampliar as campanhas de vacinação, que já estão sendo muito bem conduzidas, retomadas agora com a inovação da vacina contra a dengue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sr. Presidente, pela desburocratização, pela ampliação do turismo, pela facilitação e pelo crescimento da EMBRATUR, o bloco orienta "sim".</t>
-  </si>
-  <si>
-    <t>Na última eleição, antes da eleição do Presidente Lula, em 2022, enganaram, com toda aquela história, fazendose passar por homens honestos.</t>
-  </si>
-  <si>
-    <t>)  Presidente, eu, Deputado Mário Heringer, falo pelo bloco neste momento para cumprir um acordo que foi feito entre os Líderes desta Casa.</t>
   </si>
   <si>
     <t>Quero também, Sr. Presidente, dizer a Luiz Inácio Lula da Silva, bandido, vagabundo, animal, acéfalo: dentro do útero de uma mulher não há um monstro, há uma criança.</t>
@@ -577,10 +523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E46"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,12 +554,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>160531</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>99</v>
@@ -624,12 +571,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>160592</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>98</v>
@@ -641,12 +588,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>220553</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>95</v>
@@ -658,12 +605,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>204406</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>95</v>
@@ -675,12 +622,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>220549</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>94</v>
@@ -692,12 +639,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>204391</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>93</v>
@@ -709,7 +656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>62881</v>
       </c>
@@ -726,29 +673,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>178857</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>99</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>160632</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>98</v>
@@ -760,12 +707,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>213274</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>96</v>
@@ -777,12 +724,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>220705</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>95</v>
@@ -794,12 +741,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>141480</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>91</v>
@@ -816,7 +763,7 @@
         <v>220603</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>139</v>
@@ -833,7 +780,7 @@
         <v>220603</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>139</v>
@@ -850,7 +797,7 @@
         <v>204472</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>139</v>
@@ -867,7 +814,7 @@
         <v>220578</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>139</v>
@@ -884,7 +831,7 @@
         <v>220640</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>139</v>
@@ -901,7 +848,7 @@
         <v>74317</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>139</v>
@@ -915,13 +862,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>98057</v>
+        <v>141408</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C20">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -932,13 +879,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>74856</v>
+        <v>153423</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -949,13 +896,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>220655</v>
+        <v>220533</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C22">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -966,13 +913,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>220650</v>
+        <v>220571</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C23">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -983,13 +930,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>220630</v>
+        <v>220619</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1000,13 +947,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>160604</v>
+        <v>227275</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1017,13 +964,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>204390</v>
+        <v>220552</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1034,13 +981,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>74161</v>
+        <v>160548</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1051,13 +998,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>225386</v>
+        <v>204409</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C28">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1066,316 +1013,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>178963</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29">
-        <v>139</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>178908</v>
-      </c>
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30">
-        <v>139</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>221338</v>
-      </c>
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31">
-        <v>139</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>73768</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32">
-        <v>138</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>160758</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33">
-        <v>138</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>160758</v>
-      </c>
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34">
-        <v>138</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>204462</v>
-      </c>
-      <c r="B35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35">
-        <v>92</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>220665</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36">
-        <v>92</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>74537</v>
-      </c>
-      <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37">
-        <v>92</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>141408</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38">
-        <v>92</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>153423</v>
-      </c>
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39">
-        <v>92</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>220533</v>
-      </c>
-      <c r="B40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40">
-        <v>92</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>220571</v>
-      </c>
-      <c r="B41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41">
-        <v>92</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>220619</v>
-      </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42">
-        <v>91</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>227275</v>
-      </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43">
-        <v>91</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>220552</v>
-      </c>
-      <c r="B44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44">
-        <v>91</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>160548</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45">
-        <v>90</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>204409</v>
-      </c>
-      <c r="B46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46">
-        <v>84</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E46" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E46">
-      <sortCondition descending="1" ref="D1:D46"/>
+  <autoFilter ref="A1:E28" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E28">
+      <sortCondition descending="1" ref="D1:D28"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1400,7 +1046,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2">
         <v>3</v>
@@ -1411,7 +1057,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2">
         <v>3</v>
@@ -1422,7 +1068,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -1433,7 +1079,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -1444,7 +1090,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
@@ -1455,7 +1101,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
@@ -1466,7 +1112,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -1477,7 +1123,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -1488,7 +1134,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
@@ -1499,7 +1145,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
